--- a/biology/Zoologie/Anguis_cephallonica/Anguis_cephallonica.xlsx
+++ b/biology/Zoologie/Anguis_cephallonica/Anguis_cephallonica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anguis cephallonica est une espèce de sauriens de la famille des Anguidae[1]. Elle est appelée Orvet doré ou Orvet du Péloponnèse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anguis cephallonica est une espèce de sauriens de la famille des Anguidae. Elle est appelée Orvet doré ou Orvet du Péloponnèse.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Grèce[1]. Elle se rencontre au Péloponnèse, à Zante et à Céphalonie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Grèce. Elle se rencontre au Péloponnèse, à Zante et à Céphalonie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a longtemps été considérée comme identique à son cousin Anguis fragilis ou encore comme une sous-espèce de cette dernière, sous le nom de Anguis fragilis peloponnesiacus. Elle est désormais considérée comme une espèce distincte[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a longtemps été considérée comme identique à son cousin Anguis fragilis ou encore comme une sous-espèce de cette dernière, sous le nom de Anguis fragilis peloponnesiacus. Elle est désormais considérée comme une espèce distincte,.
 On rencontre parfois cette espèce sous le nom Anguis cephallonicus, ce qui est erroné car Anguis est féminin alors que cephallonicus est masculin, d'où la correction du nom en Anguis cephallonica.
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Werner, 1894 : Die Reptilien- und Batrachierfauna der jonischen Inseln. Verhandllungen der kaiserlich-kongiglichen zoologish-botanischen Gesellschaft in Wien, vol. 44, p. 225-237 (texte intégral).</t>
         </is>
